--- a/hasil/pengujian/hasil_pengujian_rouge2019-05-01 00-48-29.167074.xlsx
+++ b/hasil/pengujian/hasil_pengujian_rouge2019-05-01 00-48-29.167074.xlsx
@@ -25,7 +25,7 @@
     <t>recall</t>
   </si>
   <si>
-    <t>f1_score</t>
+    <t>f-Measure</t>
   </si>
   <si>
     <t>dice_tf-idf</t>

--- a/hasil/pengujian/hasil_pengujian_rouge2019-05-01 00-48-29.167074.xlsx
+++ b/hasil/pengujian/hasil_pengujian_rouge2019-05-01 00-48-29.167074.xlsx
@@ -438,10 +438,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.9560439560439561</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="D2">
-        <v>0.90625</v>
+        <v>0.8969072164948454</v>
       </c>
       <c r="E2">
         <v>0.9304812834224598</v>
@@ -455,10 +455,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.6444444444444445</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="D3">
-        <v>0.8529411764705882</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E3">
         <v>0.7341772151898733</v>
@@ -472,10 +472,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.9560439560439561</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="D4">
-        <v>0.90625</v>
+        <v>0.8969072164948454</v>
       </c>
       <c r="E4">
         <v>0.9304812834224598</v>
@@ -489,10 +489,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0.9560439560439561</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="D5">
-        <v>0.90625</v>
+        <v>0.8969072164948454</v>
       </c>
       <c r="E5">
         <v>0.9304812834224598</v>
@@ -506,10 +506,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.6444444444444445</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="D6">
-        <v>0.8529411764705882</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E6">
         <v>0.7341772151898733</v>
@@ -523,10 +523,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>0.9560439560439561</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="D7">
-        <v>0.90625</v>
+        <v>0.8969072164948454</v>
       </c>
       <c r="E7">
         <v>0.9304812834224598</v>
@@ -540,10 +540,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0.9560439560439561</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="D8">
-        <v>0.90625</v>
+        <v>0.8969072164948454</v>
       </c>
       <c r="E8">
         <v>0.9304812834224598</v>
@@ -557,13 +557,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>0.7634408602150538</v>
+        <v>0.9594594594594594</v>
       </c>
       <c r="D9">
-        <v>0.9102564102564102</v>
+        <v>0.7319587628865979</v>
       </c>
       <c r="E9">
-        <v>0.830409356725146</v>
+        <v>0.8304093567251463</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -574,13 +574,13 @@
         <v>12</v>
       </c>
       <c r="C10">
+        <v>0.9673913043478261</v>
+      </c>
+      <c r="D10">
         <v>0.9175257731958762</v>
       </c>
-      <c r="D10">
-        <v>0.9673913043478261</v>
-      </c>
       <c r="E10">
-        <v>0.9417989417989419</v>
+        <v>0.9417989417989417</v>
       </c>
     </row>
   </sheetData>

--- a/hasil/pengujian/hasil_pengujian_rouge2019-05-01 00-48-29.167074.xlsx
+++ b/hasil/pengujian/hasil_pengujian_rouge2019-05-01 00-48-29.167074.xlsx
@@ -438,10 +438,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.9666666666666667</v>
+        <v>0.9886363636363636</v>
       </c>
       <c r="D2">
-        <v>0.8969072164948454</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="E2">
         <v>0.9304812834224598</v>
@@ -455,13 +455,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.8169014084507042</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="D3">
-        <v>0.6666666666666666</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="E3">
-        <v>0.7341772151898733</v>
+        <v>0.7341772151898734</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -472,10 +472,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.9666666666666667</v>
+        <v>0.9886363636363636</v>
       </c>
       <c r="D4">
-        <v>0.8969072164948454</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="E4">
         <v>0.9304812834224598</v>
@@ -489,10 +489,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0.9666666666666667</v>
+        <v>0.9886363636363636</v>
       </c>
       <c r="D5">
-        <v>0.8969072164948454</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="E5">
         <v>0.9304812834224598</v>
@@ -506,13 +506,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.8169014084507042</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="D6">
-        <v>0.6666666666666666</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="E6">
-        <v>0.7341772151898733</v>
+        <v>0.7341772151898734</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -523,10 +523,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>0.9666666666666667</v>
+        <v>0.9886363636363636</v>
       </c>
       <c r="D7">
-        <v>0.8969072164948454</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="E7">
         <v>0.9304812834224598</v>
@@ -540,10 +540,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0.9666666666666667</v>
+        <v>0.9886363636363636</v>
       </c>
       <c r="D8">
-        <v>0.8969072164948454</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="E8">
         <v>0.9304812834224598</v>
@@ -557,10 +557,10 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>0.9594594594594594</v>
+        <v>0.9726027397260274</v>
       </c>
       <c r="D9">
-        <v>0.7319587628865979</v>
+        <v>0.7244897959183674</v>
       </c>
       <c r="E9">
         <v>0.8304093567251463</v>
@@ -574,10 +574,10 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>0.9673913043478261</v>
+        <v>0.9888888888888889</v>
       </c>
       <c r="D10">
-        <v>0.9175257731958762</v>
+        <v>0.898989898989899</v>
       </c>
       <c r="E10">
         <v>0.9417989417989417</v>
